--- a/biology/Écologie/Bactériostatique/Bactériostatique.xlsx
+++ b/biology/Écologie/Bactériostatique/Bactériostatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bact%C3%A9riostatique</t>
+          <t>Bactériostatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un bactériostatique est une substance qui inhibe la multiplication des bactéries sans les tuer[1]. Selon leur application, il est possible de distinguer les antibiotiques bactériostatiques, les désinfectants, les antiseptiques et les conservateurs. Les bactériostatiques sont souvent utilisés dans les plastiques pour empêcher la croissance des bactéries sur les surfaces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un bactériostatique est une substance qui inhibe la multiplication des bactéries sans les tuer. Selon leur application, il est possible de distinguer les antibiotiques bactériostatiques, les désinfectants, les antiseptiques et les conservateurs. Les bactériostatiques sont souvent utilisés dans les plastiques pour empêcher la croissance des bactéries sur les surfaces.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bact%C3%A9riostatique</t>
+          <t>Bactériostatique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Antibiotiques bactériostatiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un antibiotique est bactériostatique s'il modère la croissance bactérienne en interférant avec :
 la synthèse des protéines bactériennes ;
